--- a/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.09104566687622702</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8305735710435281</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.571787696088291</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.253709574059435</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.262598595620691</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.08520180331659294</v>
+        <v>0.2881368179803065</v>
       </c>
       <c r="C3">
-        <v>0.1661067608329718</v>
+        <v>0.9230054831243015</v>
       </c>
       <c r="D3">
-        <v>0.1261401982196889</v>
+        <v>1.736110936727699</v>
       </c>
       <c r="E3">
-        <v>0.3551622139525668</v>
+        <v>1.317615625562971</v>
       </c>
       <c r="F3">
-        <v>0.3482218659847702</v>
+        <v>1.298518337594399</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2066828028382481</v>
+        <v>0.2572367959422796</v>
       </c>
       <c r="C4">
-        <v>0.3687039856854687</v>
+        <v>0.9122950025140623</v>
       </c>
       <c r="D4">
-        <v>0.2691947527496539</v>
+        <v>1.616069083570048</v>
       </c>
       <c r="E4">
-        <v>0.5188398141523585</v>
+        <v>1.271247058431227</v>
       </c>
       <c r="F4">
-        <v>0.4807275223825881</v>
+        <v>1.257588522620955</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1867405816251521</v>
+        <v>0.2382191396178211</v>
       </c>
       <c r="C5">
-        <v>0.4118622553906692</v>
+        <v>0.7774418406714947</v>
       </c>
       <c r="D5">
-        <v>0.3199910209773335</v>
+        <v>1.214992806219648</v>
       </c>
       <c r="E5">
-        <v>0.5656774884837945</v>
+        <v>1.102267121082566</v>
       </c>
       <c r="F5">
-        <v>0.539498799647839</v>
+        <v>1.089587334238462</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1659541248743528</v>
+        <v>0.3461003139263453</v>
       </c>
       <c r="C6">
-        <v>0.4129889185643383</v>
+        <v>0.7692343642516598</v>
       </c>
       <c r="D6">
-        <v>0.3294375349274924</v>
+        <v>1.083647203965686</v>
       </c>
       <c r="E6">
-        <v>0.5739664928612928</v>
+        <v>1.040983767388179</v>
       </c>
       <c r="F6">
-        <v>0.5552657910905534</v>
+        <v>0.9979932377299109</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1110545324490031</v>
+        <v>0.390978884314848</v>
       </c>
       <c r="C7">
-        <v>0.3892391571420558</v>
+        <v>0.7686969224094469</v>
       </c>
       <c r="D7">
-        <v>0.2939174927860019</v>
+        <v>1.1171720694664</v>
       </c>
       <c r="E7">
-        <v>0.5421415800194649</v>
+        <v>1.056963608392645</v>
       </c>
       <c r="F7">
-        <v>0.5375820857940251</v>
+        <v>0.9993733726530692</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.07334953983534571</v>
+        <v>0.3395756546653472</v>
       </c>
       <c r="C8">
-        <v>0.4150730053027224</v>
+        <v>0.7550656853727538</v>
       </c>
       <c r="D8">
-        <v>0.3003583936032539</v>
+        <v>1.132181430349046</v>
       </c>
       <c r="E8">
-        <v>0.5480496269529375</v>
+        <v>1.064040145083373</v>
       </c>
       <c r="F8">
-        <v>0.5504095052199522</v>
+        <v>1.027608963675956</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.09775043819920012</v>
+        <v>0.3539796401532963</v>
       </c>
       <c r="C9">
-        <v>0.386935693461908</v>
+        <v>0.862300489931706</v>
       </c>
       <c r="D9">
-        <v>0.3254738671543969</v>
+        <v>1.388483373928287</v>
       </c>
       <c r="E9">
-        <v>0.5705031701528019</v>
+        <v>1.178339243990578</v>
       </c>
       <c r="F9">
-        <v>0.5759467466142807</v>
+        <v>1.154711459326994</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.04954127654256062</v>
+        <v>-0.1625119703050184</v>
       </c>
       <c r="C10">
-        <v>0.3530259353306025</v>
+        <v>0.4241755480675304</v>
       </c>
       <c r="D10">
-        <v>0.1841194967934029</v>
+        <v>0.2902502803524973</v>
       </c>
       <c r="E10">
-        <v>0.4290914783509489</v>
+        <v>0.5387488100706092</v>
       </c>
       <c r="F10">
-        <v>0.4423114306569272</v>
+        <v>0.5364938090230728</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1188039491228551</v>
+        <v>-0.2103864081339538</v>
       </c>
       <c r="C11">
-        <v>0.3962730645310045</v>
+        <v>0.4484001654209663</v>
       </c>
       <c r="D11">
-        <v>0.2251242489150065</v>
+        <v>0.297018969647196</v>
       </c>
       <c r="E11">
-        <v>0.4744726008053642</v>
+        <v>0.5449944675381539</v>
       </c>
       <c r="F11">
-        <v>0.5135779767813022</v>
+        <v>0.5620904385858309</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,19 +450,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.09104566687622702</v>
+        <v>-0.2425300391056354</v>
       </c>
       <c r="C2">
-        <v>0.8305735710435281</v>
+        <v>0.527227898904767</v>
       </c>
       <c r="D2">
-        <v>1.571787696088291</v>
+        <v>0.9024928702735646</v>
       </c>
       <c r="E2">
-        <v>1.253709574059435</v>
+        <v>0.9499962475049912</v>
       </c>
       <c r="F2">
-        <v>1.262598595620691</v>
+        <v>0.927477568261686</v>
       </c>
       <c r="G2">
         <v>52</v>
@@ -473,19 +473,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2881368179803065</v>
+        <v>0.09740790795838196</v>
       </c>
       <c r="C3">
-        <v>0.9230054831243015</v>
+        <v>0.6911176283945465</v>
       </c>
       <c r="D3">
-        <v>1.736110936727699</v>
+        <v>1.207585491876232</v>
       </c>
       <c r="E3">
-        <v>1.317615625562971</v>
+        <v>1.098901948253907</v>
       </c>
       <c r="F3">
-        <v>1.298518337594399</v>
+        <v>1.105467835429992</v>
       </c>
       <c r="G3">
         <v>51</v>
@@ -496,19 +496,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2572367959422796</v>
+        <v>-0.004016768313543259</v>
       </c>
       <c r="C4">
-        <v>0.9122950025140623</v>
+        <v>0.5629705147095596</v>
       </c>
       <c r="D4">
-        <v>1.616069083570048</v>
+        <v>0.6780094397277413</v>
       </c>
       <c r="E4">
-        <v>1.271247058431227</v>
+        <v>0.8234132861010571</v>
       </c>
       <c r="F4">
-        <v>1.257588522620955</v>
+        <v>0.8317631293628042</v>
       </c>
       <c r="G4">
         <v>50</v>
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2382191396178211</v>
+        <v>0.09599577651968134</v>
       </c>
       <c r="C5">
-        <v>0.7774418406714947</v>
+        <v>0.6642539179825266</v>
       </c>
       <c r="D5">
-        <v>1.214992806219648</v>
+        <v>0.9589064666597493</v>
       </c>
       <c r="E5">
-        <v>1.102267121082566</v>
+        <v>0.9792376967109412</v>
       </c>
       <c r="F5">
-        <v>1.089587334238462</v>
+        <v>0.9846199838003967</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3461003139263453</v>
+        <v>0.008978782371844934</v>
       </c>
       <c r="C6">
-        <v>0.7692343642516598</v>
+        <v>0.5174901747496273</v>
       </c>
       <c r="D6">
-        <v>1.083647203965686</v>
+        <v>0.5159409445670499</v>
       </c>
       <c r="E6">
-        <v>1.040983767388179</v>
+        <v>0.7182902926860768</v>
       </c>
       <c r="F6">
-        <v>0.9979932377299109</v>
+        <v>0.7258347454151787</v>
       </c>
       <c r="G6">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.390978884314848</v>
+        <v>-0.01246672580935241</v>
       </c>
       <c r="C7">
-        <v>0.7686969224094469</v>
+        <v>0.4777751499603008</v>
       </c>
       <c r="D7">
-        <v>1.1171720694664</v>
+        <v>0.5121909218362894</v>
       </c>
       <c r="E7">
-        <v>1.056963608392645</v>
+        <v>0.7156751510540864</v>
       </c>
       <c r="F7">
-        <v>0.9993733726530692</v>
+        <v>0.7249207688243822</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.3395756546653472</v>
+        <v>-0.008167537878776951</v>
       </c>
       <c r="C8">
-        <v>0.7550656853727538</v>
+        <v>0.427281569976559</v>
       </c>
       <c r="D8">
-        <v>1.132181430349046</v>
+        <v>0.3635138582900146</v>
       </c>
       <c r="E8">
-        <v>1.064040145083373</v>
+        <v>0.6029211045319401</v>
       </c>
       <c r="F8">
-        <v>1.027608963675956</v>
+        <v>0.6109583009916096</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3539796401532963</v>
+        <v>0.0204133146117494</v>
       </c>
       <c r="C9">
-        <v>0.862300489931706</v>
+        <v>0.3312074429360707</v>
       </c>
       <c r="D9">
-        <v>1.388483373928287</v>
+        <v>0.1677068730083327</v>
       </c>
       <c r="E9">
-        <v>1.178339243990578</v>
+        <v>0.4095202962104964</v>
       </c>
       <c r="F9">
-        <v>1.154711459326994</v>
+        <v>0.4191117727702709</v>
       </c>
       <c r="G9">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1625119703050184</v>
+        <v>0.001286647701700525</v>
       </c>
       <c r="C10">
-        <v>0.4241755480675304</v>
+        <v>0.3911046241481878</v>
       </c>
       <c r="D10">
-        <v>0.2902502803524973</v>
+        <v>0.2110015332851695</v>
       </c>
       <c r="E10">
-        <v>0.5387488100706092</v>
+        <v>0.4593490320934284</v>
       </c>
       <c r="F10">
-        <v>0.5364938090230728</v>
+        <v>0.4766871486157238</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.2103864081339538</v>
+        <v>-0.1188039491228551</v>
       </c>
       <c r="C11">
-        <v>0.4484001654209663</v>
+        <v>0.3962730645310045</v>
       </c>
       <c r="D11">
-        <v>0.297018969647196</v>
+        <v>0.2251242489150065</v>
       </c>
       <c r="E11">
-        <v>0.5449944675381539</v>
+        <v>0.4744726008053642</v>
       </c>
       <c r="F11">
-        <v>0.5620904385858309</v>
+        <v>0.5135779767813022</v>
       </c>
       <c r="G11">
         <v>5</v>

--- a/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/ifo_tbl/ifo_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.2425300391056354</v>
+        <v>-0.1541247462703282</v>
       </c>
       <c r="C2">
-        <v>0.527227898904767</v>
+        <v>0.852839648487878</v>
       </c>
       <c r="D2">
-        <v>0.9024928702735646</v>
+        <v>1.456859763062113</v>
       </c>
       <c r="E2">
-        <v>0.9499962475049912</v>
+        <v>1.207004458592475</v>
       </c>
       <c r="F2">
-        <v>0.927477568261686</v>
+        <v>1.209035744782678</v>
       </c>
       <c r="G2">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.09740790795838196</v>
+        <v>0.1946594554508169</v>
       </c>
       <c r="C3">
-        <v>0.6911176283945465</v>
+        <v>0.9013317542106349</v>
       </c>
       <c r="D3">
-        <v>1.207585491876232</v>
+        <v>1.740862592224634</v>
       </c>
       <c r="E3">
-        <v>1.098901948253907</v>
+        <v>1.319417520053692</v>
       </c>
       <c r="F3">
-        <v>1.105467835429992</v>
+        <v>1.318227895439372</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.004016768313543259</v>
+        <v>0.09587990046027713</v>
       </c>
       <c r="C4">
-        <v>0.5629705147095596</v>
+        <v>0.7813449169389153</v>
       </c>
       <c r="D4">
-        <v>0.6780094397277413</v>
+        <v>1.273947737936718</v>
       </c>
       <c r="E4">
-        <v>0.8234132861010571</v>
+        <v>1.128692933413122</v>
       </c>
       <c r="F4">
-        <v>0.8317631293628042</v>
+        <v>1.136267503977733</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09599577651968134</v>
+        <v>0.2010189561291209</v>
       </c>
       <c r="C5">
-        <v>0.6642539179825266</v>
+        <v>0.8357504963916088</v>
       </c>
       <c r="D5">
-        <v>0.9589064666597493</v>
+        <v>1.399781063783387</v>
       </c>
       <c r="E5">
-        <v>0.9792376967109412</v>
+        <v>1.183123435565109</v>
       </c>
       <c r="F5">
-        <v>0.9846199838003967</v>
+        <v>1.1782594200759</v>
       </c>
       <c r="G5">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.008978782371844934</v>
+        <v>0.1134028742995598</v>
       </c>
       <c r="C6">
-        <v>0.5174901747496273</v>
+        <v>0.7037266954146911</v>
       </c>
       <c r="D6">
-        <v>0.5159409445670499</v>
+        <v>0.9458163126725945</v>
       </c>
       <c r="E6">
-        <v>0.7182902926860768</v>
+        <v>0.9725308800611909</v>
       </c>
       <c r="F6">
-        <v>0.7258347454151787</v>
+        <v>0.976338955044726</v>
       </c>
       <c r="G6">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01246672580935241</v>
+        <v>0.1165933518286177</v>
       </c>
       <c r="C7">
-        <v>0.4777751499603008</v>
+        <v>0.7311150576301884</v>
       </c>
       <c r="D7">
-        <v>0.5121909218362894</v>
+        <v>1.063932431078233</v>
       </c>
       <c r="E7">
-        <v>0.7156751510540864</v>
+        <v>1.03147100350821</v>
       </c>
       <c r="F7">
-        <v>0.7249207688243822</v>
+        <v>1.038617324277796</v>
       </c>
       <c r="G7">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.008167537878776951</v>
+        <v>0.1240158675361395</v>
       </c>
       <c r="C8">
-        <v>0.427281569976559</v>
+        <v>0.6673632257439414</v>
       </c>
       <c r="D8">
-        <v>0.3635138582900146</v>
+        <v>0.9510627036727184</v>
       </c>
       <c r="E8">
-        <v>0.6029211045319401</v>
+        <v>0.9752244375899931</v>
       </c>
       <c r="F8">
-        <v>0.6109583009916096</v>
+        <v>0.9806497622900503</v>
       </c>
       <c r="G8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0204133146117494</v>
+        <v>-0.06833470819847304</v>
       </c>
       <c r="C9">
-        <v>0.3312074429360707</v>
+        <v>0.3931001917406148</v>
       </c>
       <c r="D9">
-        <v>0.1677068730083327</v>
+        <v>0.2556107661499554</v>
       </c>
       <c r="E9">
-        <v>0.4095202962104964</v>
+        <v>0.5055796338362092</v>
       </c>
       <c r="F9">
-        <v>0.4191117727702709</v>
+        <v>0.5139538519170813</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.001286647701700525</v>
+        <v>-0.001481533045873319</v>
       </c>
       <c r="C10">
-        <v>0.3911046241481878</v>
+        <v>0.394696832903608</v>
       </c>
       <c r="D10">
-        <v>0.2110015332851695</v>
+        <v>0.2639446156350248</v>
       </c>
       <c r="E10">
-        <v>0.4593490320934284</v>
+        <v>0.5137554044825463</v>
       </c>
       <c r="F10">
-        <v>0.4766871486157238</v>
+        <v>0.5347313553733598</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,19 +657,19 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.1188039491228551</v>
+        <v>0.1038035452512703</v>
       </c>
       <c r="C11">
-        <v>0.3962730645310045</v>
+        <v>0.3551067294956168</v>
       </c>
       <c r="D11">
-        <v>0.2251242489150065</v>
+        <v>0.1935206269752047</v>
       </c>
       <c r="E11">
-        <v>0.4744726008053642</v>
+        <v>0.4399097941342119</v>
       </c>
       <c r="F11">
-        <v>0.5135779767813022</v>
+        <v>0.4779454087137884</v>
       </c>
       <c r="G11">
         <v>5</v>
